--- a/Final Report/Final Report.xlsx
+++ b/Final Report/Final Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awpc2\Downloads\DA\New folder\Final Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2DACC-53B7-449A-B49B-05E09DC154E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBE267-10FF-4E29-918F-E4293CD912F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="780" firstSheet="7" activeTab="11" xr2:uid="{F84691F4-BBB5-4BC7-B739-AD4221675A5C}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
   <si>
     <t>total_customers</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Goals</t>
+  </si>
+  <si>
+    <t>Dashborad Link</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C31FFCF-A10F-4C30-8FC5-4DDB58B56E0C}" type="CELLRANGE">
+                    <a:fld id="{11D00E6E-72A4-4C7E-88BB-4319E65796C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2180,7 +2183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E645BD94-B4E3-4CE4-A957-14B3E906C236}" type="CELLRANGE">
+                    <a:fld id="{0BFC32ED-017F-4EAD-8B5A-48367BD22AAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2213,7 +2216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C457CA24-2C92-456E-A265-DB60B2C5027B}" type="CELLRANGE">
+                    <a:fld id="{E905B354-B69D-48D3-AB01-BAAC75781E30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2246,7 +2249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F6B45C2-DB1E-456C-A2A2-CC268D6D7239}" type="CELLRANGE">
+                    <a:fld id="{9DEB597D-BC51-4064-85BC-14A870DD82F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2279,7 +2282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A3ECD80-8345-463D-ABF3-3E5AC6AE34F6}" type="CELLRANGE">
+                    <a:fld id="{0309F5FA-352D-4BEB-898D-0EA5F54E685C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2312,7 +2315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{608762B2-7A77-48C3-8A5C-0E818B5E155A}" type="CELLRANGE">
+                    <a:fld id="{25C3F89D-D3D0-4467-9DDC-5CE951022D63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2345,7 +2348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF3B9E9E-ABBA-4FE2-A222-2DA82ED105FF}" type="CELLRANGE">
+                    <a:fld id="{8D76CC68-35D8-4897-BFA9-CE8C45A56A31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2378,7 +2381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF9DFF03-20B5-4EC1-A1D7-8C00B9D13804}" type="CELLRANGE">
+                    <a:fld id="{FAD51CEA-A02E-4D61-80AF-E3A5E75D87B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2411,7 +2414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2945A968-EB78-439F-9ADF-123E37639500}" type="CELLRANGE">
+                    <a:fld id="{08950A7F-932D-4915-B7AC-1FB7070E166F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2444,7 +2447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDD9B5B9-04D3-46DC-88BF-3EACADD4BFB7}" type="CELLRANGE">
+                    <a:fld id="{6ECD6506-B8CE-4482-9355-04A94E4C444E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11426,8 +11429,8 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16383</xdr:col>
-      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -11445,7 +11448,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="447674" y="361949"/>
-          <a:ext cx="14316076" cy="3495675"/>
+          <a:ext cx="11449051" cy="3495675"/>
           <a:chOff x="1543050" y="495300"/>
           <a:chExt cx="7848600" cy="3477762"/>
         </a:xfrm>
@@ -13554,18 +13557,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D8BA4-86CF-4A94-AE26-1F78620F6A73}">
-  <dimension ref="A1:XFD40"/>
+  <dimension ref="S1:XFD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
     <col min="22" max="16383" width="9.140625" hidden="1"/>
-    <col min="16384" max="16384" width="41.85546875" customWidth="1"/>
+    <col min="16384" max="16384" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -13584,13 +13585,16 @@
     <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="19:19" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="19:19" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S22" s="13"/>
+    <row r="17" spans="19:19 16384:16384" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="19:19 16384:16384" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="19:19 16384:16384" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="19:19 16384:16384" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="19:19 16384:16384" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="19:19 16384:16384" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="XFD22" s="13"/>
     </row>
     <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -13601,6 +13605,9 @@
     <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S22" location="Dashboard!A1" display="Dashborad Link" xr:uid="{C42CF8AD-146A-4289-8A1C-752CA19B37B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
